--- a/docs/Reviews/Review-1.xlsx
+++ b/docs/Reviews/Review-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="203">
   <si>
     <t>No</t>
   </si>
@@ -147,6 +147,9 @@
     <t>Overloading the website your app is scraping with too many requests, can slow down the site or even cause it to crash.</t>
   </si>
   <si>
+    <t>Accepted</t>
+  </si>
+  <si>
     <t>Provide a mitigation strategy for this risk</t>
   </si>
   <si>
@@ -499,6 +502,9 @@
 Also, In step "3a. User wants to remove products.", removal process is supposed to be clarified as well</t>
   </si>
   <si>
+    <t>Rejected</t>
+  </si>
+  <si>
     <t>Provide the scopes of adding and removing a product</t>
   </si>
   <si>
@@ -626,36 +632,6 @@
   </si>
   <si>
     <t>Only iteration 1 work items are listed. Try to describe your work items as much as possible.Because there is a work item stated as "Produce iteration plan for iterations 1&amp;2", hence it is expected to see the work items for iteration 2.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
   </si>
 </sst>
 </file>
@@ -973,6 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -982,7 +959,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
+    <col customWidth="1" min="1" max="1" width="5.38"/>
     <col customWidth="1" min="2" max="2" width="7.88"/>
     <col customWidth="1" min="3" max="3" width="16.75"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
@@ -1026,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
@@ -1058,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
@@ -1154,7 +1131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="2">
         <v>5.0</v>
       </c>
@@ -1250,7 +1227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
@@ -1276,13 +1253,13 @@
         <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" hidden="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
@@ -1305,16 +1282,16 @@
         <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" hidden="1">
+    </row>
+    <row r="11">
       <c r="A11" s="2">
         <v>10.0</v>
       </c>
@@ -1337,13 +1314,13 @@
         <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1351,10 +1328,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>3.0</v>
@@ -1369,13 +1346,13 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1383,10 +1360,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5">
         <v>3.0</v>
@@ -1401,13 +1378,13 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1415,10 +1392,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5">
         <v>3.0</v>
@@ -1433,24 +1410,24 @@
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" hidden="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5">
         <v>3.0</v>
@@ -1465,24 +1442,24 @@
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5">
         <v>3.0</v>
@@ -1497,24 +1474,24 @@
         <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="5">
         <v>4.0</v>
@@ -1529,24 +1506,24 @@
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5">
         <v>4.0</v>
@@ -1561,24 +1538,24 @@
         <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5">
         <v>4.0</v>
@@ -1593,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1607,7 +1584,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
@@ -1625,13 +1602,13 @@
         <v>24</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -1639,7 +1616,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
@@ -1657,13 +1634,13 @@
         <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -1671,10 +1648,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3">
         <v>3.0</v>
@@ -1689,24 +1666,24 @@
         <v>24</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3">
         <v>3.0</v>
@@ -1721,24 +1698,24 @@
         <v>39</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" hidden="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2">
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3">
         <v>3.0</v>
@@ -1753,13 +1730,13 @@
         <v>39</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1767,10 +1744,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3">
         <v>3.0</v>
@@ -1785,13 +1762,13 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -1799,10 +1776,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="3">
         <v>3.0</v>
@@ -1817,13 +1794,13 @@
         <v>24</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1831,10 +1808,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3">
         <v>4.0</v>
@@ -1849,24 +1826,24 @@
         <v>24</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" hidden="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3">
         <v>4.0</v>
@@ -1881,24 +1858,24 @@
         <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3">
         <v>4.0</v>
@@ -1913,13 +1890,13 @@
         <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1927,10 +1904,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="3">
         <v>4.0</v>
@@ -1945,13 +1922,13 @@
         <v>24</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1959,10 +1936,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3">
         <v>4.0</v>
@@ -1977,13 +1954,13 @@
         <v>24</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -1991,10 +1968,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3">
         <v>4.0</v>
@@ -2009,24 +1986,24 @@
         <v>24</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3">
         <v>4.0</v>
@@ -2041,24 +2018,24 @@
         <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3">
         <v>4.0</v>
@@ -2073,13 +2050,13 @@
         <v>13</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -2087,10 +2064,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3">
         <v>4.0</v>
@@ -2108,18 +2085,18 @@
         <v>15</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" hidden="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3">
         <v>4.0</v>
@@ -2134,13 +2111,13 @@
         <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -2148,10 +2125,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="3">
         <v>4.0</v>
@@ -2166,13 +2143,13 @@
         <v>24</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -2180,10 +2157,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3">
         <v>4.0</v>
@@ -2198,13 +2175,13 @@
         <v>24</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -2212,10 +2189,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="3">
         <v>4.0</v>
@@ -2230,13 +2207,13 @@
         <v>24</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -2244,10 +2221,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3">
         <v>4.0</v>
@@ -2262,24 +2239,24 @@
         <v>24</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="3">
         <v>4.0</v>
@@ -2294,24 +2271,24 @@
         <v>13</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" hidden="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="5">
         <v>4.0</v>
@@ -2326,24 +2303,24 @@
         <v>13</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" hidden="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D43" s="3">
         <v>5.0</v>
@@ -2358,13 +2335,13 @@
         <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
@@ -2372,10 +2349,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="5">
         <v>5.0</v>
@@ -2390,24 +2367,24 @@
         <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" hidden="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="5">
         <v>5.0</v>
@@ -2422,13 +2399,13 @@
         <v>39</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -2436,10 +2413,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" s="5">
         <v>6.0</v>
@@ -2454,13 +2431,13 @@
         <v>24</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -2468,10 +2445,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D47" s="5">
         <v>6.0</v>
@@ -2486,13 +2463,13 @@
         <v>24</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
@@ -2500,10 +2477,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" s="5">
         <v>7.0</v>
@@ -2518,13 +2495,13 @@
         <v>24</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -2532,10 +2509,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5">
         <v>8.0</v>
@@ -2550,13 +2527,13 @@
         <v>24</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -2564,10 +2541,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5">
         <v>8.0</v>
@@ -2582,13 +2559,13 @@
         <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -2596,10 +2573,10 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D51" s="5">
         <v>9.0</v>
@@ -2614,13 +2591,13 @@
         <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
@@ -2628,10 +2605,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" s="5">
         <v>9.0</v>
@@ -2646,24 +2623,24 @@
         <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" hidden="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="2">
         <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D53" s="5">
         <v>9.0</v>
@@ -2678,24 +2655,24 @@
         <v>39</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" hidden="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="2">
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D54" s="5">
         <v>10.0</v>
@@ -2710,13 +2687,13 @@
         <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -2724,10 +2701,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="5">
         <v>10.0</v>
@@ -2742,13 +2719,13 @@
         <v>24</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -2756,10 +2733,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" s="5">
         <v>11.0</v>
@@ -2774,13 +2751,13 @@
         <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -2788,10 +2765,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D57" s="5">
         <v>11.0</v>
@@ -2806,24 +2783,24 @@
         <v>24</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" hidden="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="2">
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" s="5">
         <v>11.0</v>
@@ -2838,13 +2815,13 @@
         <v>39</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59">
@@ -2852,10 +2829,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D59" s="5">
         <v>12.0</v>
@@ -2870,24 +2847,24 @@
         <v>24</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" hidden="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="2">
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="5">
         <v>4.0</v>
@@ -2902,24 +2879,24 @@
         <v>39</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" hidden="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="2">
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D61" s="5">
         <v>4.0</v>
@@ -2934,13 +2911,13 @@
         <v>13</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62">
@@ -2948,10 +2925,10 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D62" s="5">
         <v>5.0</v>
@@ -2966,13 +2943,13 @@
         <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63">
@@ -2980,16 +2957,16 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D63" s="5">
         <v>6.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F63" s="5">
         <v>8.0</v>
@@ -2998,24 +2975,24 @@
         <v>24</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" hidden="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="2">
         <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D64" s="5">
         <v>6.0</v>
@@ -3030,24 +3007,24 @@
         <v>39</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="2">
         <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D65" s="5">
         <v>7.0</v>
@@ -3062,24 +3039,24 @@
         <v>39</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" hidden="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="2">
         <v>65.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66" s="5">
         <v>11.0</v>
@@ -3094,24 +3071,24 @@
         <v>39</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="2">
         <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D67" s="5">
         <v>12.0</v>
@@ -3126,30 +3103,30 @@
         <v>39</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="2">
         <v>67.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D68" s="3">
         <v>3.0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F68" s="3">
         <v>1.0</v>
@@ -3158,24 +3135,24 @@
         <v>13</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" hidden="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="2">
         <v>68.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D69" s="3">
         <v>3.0</v>
@@ -3190,24 +3167,24 @@
         <v>13</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="2">
         <v>69.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D70" s="3">
         <v>3.0</v>
@@ -3222,24 +3199,24 @@
         <v>13</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" hidden="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="2">
         <v>70.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D71" s="3">
         <v>3.0</v>
@@ -3254,13 +3231,13 @@
         <v>13</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
@@ -3268,16 +3245,16 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D72" s="3">
         <v>3.0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F72" s="3">
         <v>3.0</v>
@@ -3286,24 +3263,24 @@
         <v>24</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" hidden="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="2">
         <v>72.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D73" s="3">
         <v>5.0</v>
@@ -3318,13 +3295,13 @@
         <v>13</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74">
@@ -3332,16 +3309,16 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D74" s="3">
         <v>5.0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F74" s="3">
         <v>3.0</v>
@@ -3350,24 +3327,24 @@
         <v>24</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" hidden="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="2">
         <v>74.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D75" s="3">
         <v>6.0</v>
@@ -3382,24 +3359,24 @@
         <v>13</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" hidden="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="2">
         <v>75.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D76" s="3">
         <v>8.0</v>
@@ -3414,24 +3391,24 @@
         <v>13</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" hidden="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="2">
         <v>76.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D77" s="3">
         <v>8.0</v>
@@ -3446,13 +3423,13 @@
         <v>13</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
@@ -3460,16 +3437,16 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D78" s="3">
         <v>8.0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F78" s="3">
         <v>3.0</v>
@@ -3478,24 +3455,24 @@
         <v>24</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" hidden="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="2">
         <v>78.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D79" s="3">
         <v>8.0</v>
@@ -3510,24 +3487,24 @@
         <v>39</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="2">
         <v>79.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D80" s="3">
         <v>8.0</v>
@@ -3542,24 +3519,24 @@
         <v>39</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="2">
         <v>80.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D81" s="3">
         <v>9.0</v>
@@ -3574,24 +3551,24 @@
         <v>13</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="2">
         <v>81.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D82" s="3">
         <v>9.0</v>
@@ -3606,24 +3583,24 @@
         <v>39</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" hidden="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2">
         <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>12</v>
@@ -3638,16 +3615,16 @@
         <v>39</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -13296,36 +13273,16 @@
       <c r="J887" s="10"/>
     </row>
     <row r="888">
-      <c r="A888" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B888" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C888" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D888" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E888" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F888" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G888" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H888" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I888" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J888" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A888" s="2"/>
+      <c r="B888" s="5"/>
+      <c r="C888" s="2"/>
+      <c r="D888" s="5"/>
+      <c r="E888" s="5"/>
+      <c r="F888" s="5"/>
+      <c r="G888" s="2"/>
+      <c r="H888" s="2"/>
+      <c r="I888" s="2"/>
+      <c r="J888" s="2"/>
     </row>
     <row r="889">
       <c r="B889" s="12"/>
@@ -14157,15 +14114,13 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$J$84">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Medium"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A1:J84">
       <sortCondition ref="B1:B84"/>
     </sortState>
   </autoFilter>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>